--- a/500all/speech_level/speeches_CHRG-114hhrg21525.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg21525.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="77">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>400219</t>
   </si>
   <si>
-    <t>Peter T. King</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. King. Good morning. I thank each of you for being here. Sorry I didn't get a chance to talk to you beforehand, but Mr. Higgins and I were comparing notes up here and--2 great minds get together----    [Laughter.]</t>
   </si>
   <si>
@@ -67,9 +64,6 @@
     <t>400641</t>
   </si>
   <si>
-    <t>Brian Higgins</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Higgins. Thank you, Mr. Chairman.    Over the past 2 years, negotiations, debates, and intelligence reports of Iran's nuclear program have largely overshadowed the regime's status as the most dangerous state sponsor of terror in the world.    With nuclear negotiations dominating the discussion, fewer and fewer conversations are being had regarding Iran's creation, funding, and continuing support for Hezbollah. As Congress continues to move legislation, provide resources, and maintain our vigilance over the chaos that has erupted in the Syrian civil war, Iran continues to support the Assad regime.    Iran is continuing to support a regime that has massacred hundreds of thousands of its own people. While I am aware of the current intelligence reporting assessment that Hezbollah's North American activity may be limited to fundraising, this is not reassuring.    What is more, this reporting is a warning that we must remain vigilant and take the necessary precautions to keep our communities safe. We cannot forget that, with Iranian support, Hezbollah has conducted numerous attacks against U.S. facilities, persons, and interests abroad.    In 1983, 241 American servicemen were killed when a truck bomb destroyed their barracks in Beirut. In 1988, Colonel William Higgins, a U.S. Marine involved in a U.N. observer mission in Lebanon, was kidnapped and murdered.    In 1992 and 1994, bombings of Jewish cultural institutions in Argentina, which Iran was directly implicated. In 1996, a car bombing in Khobar Towers, the U.S. military residence in Saudi Arabia, which killed 19 U.S. servicemen.    There is no doubt that Iran's terrorist ties extend beyond the Middle East to the Western Hemisphere, where, in conjunction with Hezbollah, it is engaged in fundraising, illicit financing schemes, and several devastating terrorist attacks. We cannot afford to be complacent. These activities constitute a real and continuing threat to our National security.    In 2011, before this very same subcommittee, with many of the same members you see here today, we heard expert testimony that Hezbollah was active and present in 15 American cities in the United States and 4 cities in Canada, including Toronto, which is 90 miles from my district.    Today, there will be a lot of discussion of the Joint Comprehensive Plan of Action, otherwise known as the Iran Nuclear Agreement. As we engage today, I hope that we can have a serious dialogue about the dangers of Iran using an improved economy to fund its terrorist proxies across the world, and the United States' role in preventing these dangerous actions.    I think we can all agree that issue is both complicated and delicate, and there were trade-offs that we had to make. Ultimately, I believe the agreement provided the United States with an opportunity to halt Iran's nuclear weapons program, and, thereby, prevent a nuclear arms race, which would have overtaken the Middle East.    The nuclear agreement provides the best viable option we have to block Iran's pathway to a nuclear bomb. It is imperative that we continue to check Iranian influence around the globe and thwart future attacks. I look forward to a robust discussion with our witnesses today.    We especially want to thank our witness, Mr. Saab. He and his wife welcomed their first child this week.    Thank you for appearing before us today and congratulations.    With that, I will yield back.</t>
   </si>
   <si>
@@ -79,9 +73,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Saab</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Saab. Thank you, very much.</t>
   </si>
   <si>
@@ -91,16 +82,10 @@
     <t xml:space="preserve">    Mr. King. We are pleased to have a distinguished panel of witnesses before us today on this vital topic.    The first witness will be Mr. Tzvi Kahn, who is a senior policy analyst for the Foreign Policy Initiative, where he has written extensively on Iran and their foreign and security policy. He previously served as the assistant director for policy and government affairs at AIPAC.    He holds a master's degree in Middle East Studies from the George Washington University's Elliott School of International Affairs and earned his bachelor's degree in English and in Classical Languages from Yeshiva University.    Mr. Kahn.</t>
   </si>
   <si>
-    <t>Kahn</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Kahn. Chairman King, Ranking Member Higgins, and distinguished Members of the subcommittee, thank you for the opportunity to testify this morning. In the post-Nuclear Deal era, Iran's long-standing objectives in the Middle East remain unchanged, regional hegemony and the contraction of U.S. forces and influence.    In fact, the Nuclear Deal makes these goals more achievable, since it provides Iran with billions of dollars in sanctions relief, which it will inevitably use to expand its global terror operations. President Obama has rightly stated that the United States can and must continue to fight Tehran's support for terrorism after the deal.    Such an effort, he said, would, in fact, be easier, now that the nuclear file has been closed. At the same time, he has also argued that the deal could ultimately lead to a broader rapprochement with Iran and strengthen moderate forces within the country.    Unfortunately, it has not turned out that way. In the 7 months since the deal, Tehran has continued and, in many respects, increased its regional aggression, its domestic repression, its violations of international laws and norms, and its open defiance of the United States and its allies.    In response, the administration has remained largely passive. The list of Iranian provocations is long and grim, but I will highlight just a few. In collaboration with Moscow, Tehran has increased its support for the bloody Assad regime. It backs the Lebanese terrorist group Hezbollah and Houthi.    It aids Shiite militias in Iraq that have killed more than 500 U.S. soldiers and that likely were responsible for kidnapping three Americans last month. It has tested ballistic missiles in violation of the U.N. Security Council resolutions.    It has test-fired rockets in dangerous proximity to a U.S. aircraft carrier. It has waged cyber attacks against the United States. It has captured U.S. soldiers and broadcast their surrender in an effort to humiliate America.    It has used U.S. prisoners as bargaining chips to secure the release of Iranian sanctions violators. It has carried out what the International Campaign for Human Rights in Iran calls the largest crackdown on human rights since the 2009 Green Revolution.    Why would Iran behave this way so soon after signing a landmark nuclear agreement with the international community? The reasons, I think, are both tactical and ideological. First, the deal has offered Iran a tactical opportunity to leverage it as a coercive mechanism in its dealings with Washington.    Recognizing that the preservation of the deal is the Obama administration's top foreign policy priority, Tehran has repeatedly threatened to walk away from it, if Washington punishes the regime for any kind of misbehavior.    In so doing, Tehran has deterred meaningful consequences for its actions. This ploy has proven quite successful. It has enabled Iran to set the terms of its relationship with America and to advance its extremist agenda with relative impunity.    Second, as multiple statements from Iran's Supreme Leader, Ayatollah Ali Khamenei, indicate, Tehran fears that the Nuclear Deal is in some way a ruse, aimed at advancing the Western effort to infiltrate its body politic, subvert its radical Islamist ideology, and ultimately overthrow the regime.    To be sure, Tehran's fears of Western infiltration date back to the Islamic Republic's founding in 1979 and are a key part of its conspiratorial world view, regardless of the reality.    But this time, its anxieties have an element of truth. After all, President Obama has repeatedly stated that a Nuclear Deal could help alter the fundamental nature of U.S.-Iranian relations.    For this reason, Iran has increased its aggression, in order to convey a simple message. In the post-Nuclear Deal era, Tehran's hostility towards the West will endure. There will be no rapprochement.    As the regime has repeatedly stated, the deal was purely transactional and had only one purpose: Sanctions relief. Thus, as a practical matter, the deal has not moderated Iran, but, in fact, has exacerbated its dangerous behavior.    What should the United States do? I believe that we need to make a fundamental paradigm shift in our relationship with Iran and adopt a comprehensive strategy, rooted in the premise that our policy on the Nuclear Deal and our policy on Iran's support for terrorism are inextricably linked.    How can the United States achieve this? By reestablishing deterrents and forcing Tehran to reassess the cost-benefit analysis of its behavior; by imposing meaningful new sanctions on Iran's Islamic Revolutionary Guard Corps, which spearheads Iran's regional aggression and domestic repression; by openly siding with our Gulf allies against Iran, in order to reduce its regional presence and influence; by treating Iran as part of the region's problems, especially Syria's Civil War, not as part of the solution.    In short, we need to reverse the current dynamic, so that it is Iran, not the United States, that fears the consequences of deliberate provocations. This process will not be easy, but if the United States continues its current path, I fear that Iranian aggression will likely continue to increase, further endangering our allies, our interests, and our National security.    Thank you, again, for the opportunity to testify today, and I look forward to your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. King. Thank you, Mr. Kahn.    Our next witness is Mr. Ilan Berman. He is vice president of the American Foreign Policy Council in Washington, DC, and is an acknowledged expert on regional security in the Middle East, Central Asia, and the Russian Federation, and has consulted for both the U.S. Central Intelligence Agency and the Department of Defense.    Mr. Berman is a member of the associated faculty at Missouri State University's Department of Defense and Strategic Studies, and serves as a columnist for Forbes.com and The Washington Times, and is the editor of the Journal of International Security Affairs. He has written several books, including the most recent, ``Iran's Strategic Penetration of Latin America,'' published in 2014.    Recognized for 5 minutes. Thank you, Mr. Berman.</t>
-  </si>
-  <si>
-    <t>Berman</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Berman. Thank you.</t>
@@ -658,11 +643,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -684,11 +667,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -710,11 +691,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -734,13 +713,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
         <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -762,11 +739,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -786,13 +761,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -814,11 +787,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -840,11 +811,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -864,13 +833,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -892,11 +859,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -916,13 +881,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" t="s">
-        <v>28</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -944,11 +907,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -968,13 +929,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" t="s">
-        <v>28</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -996,11 +955,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1020,13 +977,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1048,11 +1003,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1072,13 +1025,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1100,11 +1051,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1124,13 +1073,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1152,11 +1099,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1176,13 +1121,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1202,13 +1145,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" t="s">
-        <v>28</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1230,11 +1171,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1254,13 +1193,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>20</v>
-      </c>
-      <c r="G25" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1282,11 +1219,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1306,13 +1241,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1332,13 +1265,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>20</v>
-      </c>
-      <c r="G28" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1358,13 +1289,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>20</v>
-      </c>
-      <c r="G29" t="s">
-        <v>28</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1384,13 +1313,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>20</v>
-      </c>
-      <c r="G30" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1410,13 +1337,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1436,13 +1361,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>20</v>
-      </c>
-      <c r="G32" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1462,13 +1385,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>20</v>
-      </c>
-      <c r="G33" t="s">
-        <v>28</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1488,13 +1409,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>20</v>
-      </c>
-      <c r="G34" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1516,11 +1435,9 @@
       <c r="F35" t="s">
         <v>11</v>
       </c>
-      <c r="G35" t="s">
-        <v>12</v>
-      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1540,13 +1457,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1568,11 +1483,9 @@
       <c r="F37" t="s">
         <v>11</v>
       </c>
-      <c r="G37" t="s">
-        <v>12</v>
-      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1592,13 +1505,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>20</v>
-      </c>
-      <c r="G38" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1620,11 +1531,9 @@
       <c r="F39" t="s">
         <v>11</v>
       </c>
-      <c r="G39" t="s">
-        <v>12</v>
-      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1644,13 +1553,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>20</v>
-      </c>
-      <c r="G40" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1672,11 +1579,9 @@
       <c r="F41" t="s">
         <v>11</v>
       </c>
-      <c r="G41" t="s">
-        <v>12</v>
-      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1696,13 +1601,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>20</v>
-      </c>
-      <c r="G42" t="s">
-        <v>28</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1724,11 +1627,9 @@
       <c r="F43" t="s">
         <v>11</v>
       </c>
-      <c r="G43" t="s">
-        <v>12</v>
-      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1748,13 +1649,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>20</v>
-      </c>
-      <c r="G44" t="s">
-        <v>28</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1776,11 +1675,9 @@
       <c r="F45" t="s">
         <v>11</v>
       </c>
-      <c r="G45" t="s">
-        <v>12</v>
-      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1800,13 +1697,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>20</v>
-      </c>
-      <c r="G46" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1828,11 +1723,9 @@
       <c r="F47" t="s">
         <v>11</v>
       </c>
-      <c r="G47" t="s">
-        <v>12</v>
-      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1852,13 +1745,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>20</v>
-      </c>
-      <c r="G48" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1878,13 +1769,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>20</v>
-      </c>
-      <c r="G49" t="s">
-        <v>28</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1904,13 +1793,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>20</v>
-      </c>
-      <c r="G50" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1932,11 +1819,9 @@
       <c r="F51" t="s">
         <v>11</v>
       </c>
-      <c r="G51" t="s">
-        <v>12</v>
-      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1956,13 +1841,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>20</v>
-      </c>
-      <c r="G52" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1984,11 +1867,9 @@
       <c r="F53" t="s">
         <v>11</v>
       </c>
-      <c r="G53" t="s">
-        <v>12</v>
-      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2008,13 +1889,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>20</v>
-      </c>
-      <c r="G54" t="s">
-        <v>28</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2036,11 +1915,9 @@
       <c r="F55" t="s">
         <v>11</v>
       </c>
-      <c r="G55" t="s">
-        <v>12</v>
-      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2060,13 +1937,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>20</v>
-      </c>
-      <c r="G56" t="s">
-        <v>28</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2088,11 +1963,9 @@
       <c r="F57" t="s">
         <v>11</v>
       </c>
-      <c r="G57" t="s">
-        <v>12</v>
-      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2112,13 +1985,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>20</v>
-      </c>
-      <c r="G58" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2140,11 +2011,9 @@
       <c r="F59" t="s">
         <v>11</v>
       </c>
-      <c r="G59" t="s">
-        <v>12</v>
-      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2164,13 +2033,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>20</v>
-      </c>
-      <c r="G60" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2192,11 +2059,9 @@
       <c r="F61" t="s">
         <v>11</v>
       </c>
-      <c r="G61" t="s">
-        <v>12</v>
-      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2216,13 +2081,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>20</v>
-      </c>
-      <c r="G62" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2244,11 +2107,9 @@
       <c r="F63" t="s">
         <v>11</v>
       </c>
-      <c r="G63" t="s">
-        <v>12</v>
-      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2268,13 +2129,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>20</v>
-      </c>
-      <c r="G64" t="s">
-        <v>28</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2296,11 +2155,9 @@
       <c r="F65" t="s">
         <v>11</v>
       </c>
-      <c r="G65" t="s">
-        <v>12</v>
-      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2320,13 +2177,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>20</v>
-      </c>
-      <c r="G66" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2348,11 +2203,9 @@
       <c r="F67" t="s">
         <v>11</v>
       </c>
-      <c r="G67" t="s">
-        <v>12</v>
-      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg21525.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg21525.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="85">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,6 +55,12 @@
     <t>400219</t>
   </si>
   <si>
+    <t>King</t>
+  </si>
+  <si>
+    <t>Peter</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. King. Good morning. I thank each of you for being here. Sorry I didn't get a chance to talk to you beforehand, but Mr. Higgins and I were comparing notes up here and--2 great minds get together----    [Laughter.]</t>
   </si>
   <si>
@@ -64,6 +73,12 @@
     <t>400641</t>
   </si>
   <si>
+    <t>Higgins</t>
+  </si>
+  <si>
+    <t>Brian</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Higgins. Thank you, Mr. Chairman.    Over the past 2 years, negotiations, debates, and intelligence reports of Iran's nuclear program have largely overshadowed the regime's status as the most dangerous state sponsor of terror in the world.    With nuclear negotiations dominating the discussion, fewer and fewer conversations are being had regarding Iran's creation, funding, and continuing support for Hezbollah. As Congress continues to move legislation, provide resources, and maintain our vigilance over the chaos that has erupted in the Syrian civil war, Iran continues to support the Assad regime.    Iran is continuing to support a regime that has massacred hundreds of thousands of its own people. While I am aware of the current intelligence reporting assessment that Hezbollah's North American activity may be limited to fundraising, this is not reassuring.    What is more, this reporting is a warning that we must remain vigilant and take the necessary precautions to keep our communities safe. We cannot forget that, with Iranian support, Hezbollah has conducted numerous attacks against U.S. facilities, persons, and interests abroad.    In 1983, 241 American servicemen were killed when a truck bomb destroyed their barracks in Beirut. In 1988, Colonel William Higgins, a U.S. Marine involved in a U.N. observer mission in Lebanon, was kidnapped and murdered.    In 1992 and 1994, bombings of Jewish cultural institutions in Argentina, which Iran was directly implicated. In 1996, a car bombing in Khobar Towers, the U.S. military residence in Saudi Arabia, which killed 19 U.S. servicemen.    There is no doubt that Iran's terrorist ties extend beyond the Middle East to the Western Hemisphere, where, in conjunction with Hezbollah, it is engaged in fundraising, illicit financing schemes, and several devastating terrorist attacks. We cannot afford to be complacent. These activities constitute a real and continuing threat to our National security.    In 2011, before this very same subcommittee, with many of the same members you see here today, we heard expert testimony that Hezbollah was active and present in 15 American cities in the United States and 4 cities in Canada, including Toronto, which is 90 miles from my district.    Today, there will be a lot of discussion of the Joint Comprehensive Plan of Action, otherwise known as the Iran Nuclear Agreement. As we engage today, I hope that we can have a serious dialogue about the dangers of Iran using an improved economy to fund its terrorist proxies across the world, and the United States' role in preventing these dangerous actions.    I think we can all agree that issue is both complicated and delicate, and there were trade-offs that we had to make. Ultimately, I believe the agreement provided the United States with an opportunity to halt Iran's nuclear weapons program, and, thereby, prevent a nuclear arms race, which would have overtaken the Middle East.    The nuclear agreement provides the best viable option we have to block Iran's pathway to a nuclear bomb. It is imperative that we continue to check Iranian influence around the globe and thwart future attacks. I look forward to a robust discussion with our witnesses today.    We especially want to thank our witness, Mr. Saab. He and his wife welcomed their first child this week.    Thank you for appearing before us today and congratulations.    With that, I will yield back.</t>
   </si>
   <si>
@@ -73,6 +88,9 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Saab</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Saab. Thank you, very much.</t>
   </si>
   <si>
@@ -82,10 +100,16 @@
     <t xml:space="preserve">    Mr. King. We are pleased to have a distinguished panel of witnesses before us today on this vital topic.    The first witness will be Mr. Tzvi Kahn, who is a senior policy analyst for the Foreign Policy Initiative, where he has written extensively on Iran and their foreign and security policy. He previously served as the assistant director for policy and government affairs at AIPAC.    He holds a master's degree in Middle East Studies from the George Washington University's Elliott School of International Affairs and earned his bachelor's degree in English and in Classical Languages from Yeshiva University.    Mr. Kahn.</t>
   </si>
   <si>
+    <t>Kahn</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Kahn. Chairman King, Ranking Member Higgins, and distinguished Members of the subcommittee, thank you for the opportunity to testify this morning. In the post-Nuclear Deal era, Iran's long-standing objectives in the Middle East remain unchanged, regional hegemony and the contraction of U.S. forces and influence.    In fact, the Nuclear Deal makes these goals more achievable, since it provides Iran with billions of dollars in sanctions relief, which it will inevitably use to expand its global terror operations. President Obama has rightly stated that the United States can and must continue to fight Tehran's support for terrorism after the deal.    Such an effort, he said, would, in fact, be easier, now that the nuclear file has been closed. At the same time, he has also argued that the deal could ultimately lead to a broader rapprochement with Iran and strengthen moderate forces within the country.    Unfortunately, it has not turned out that way. In the 7 months since the deal, Tehran has continued and, in many respects, increased its regional aggression, its domestic repression, its violations of international laws and norms, and its open defiance of the United States and its allies.    In response, the administration has remained largely passive. The list of Iranian provocations is long and grim, but I will highlight just a few. In collaboration with Moscow, Tehran has increased its support for the bloody Assad regime. It backs the Lebanese terrorist group Hezbollah and Houthi.    It aids Shiite militias in Iraq that have killed more than 500 U.S. soldiers and that likely were responsible for kidnapping three Americans last month. It has tested ballistic missiles in violation of the U.N. Security Council resolutions.    It has test-fired rockets in dangerous proximity to a U.S. aircraft carrier. It has waged cyber attacks against the United States. It has captured U.S. soldiers and broadcast their surrender in an effort to humiliate America.    It has used U.S. prisoners as bargaining chips to secure the release of Iranian sanctions violators. It has carried out what the International Campaign for Human Rights in Iran calls the largest crackdown on human rights since the 2009 Green Revolution.    Why would Iran behave this way so soon after signing a landmark nuclear agreement with the international community? The reasons, I think, are both tactical and ideological. First, the deal has offered Iran a tactical opportunity to leverage it as a coercive mechanism in its dealings with Washington.    Recognizing that the preservation of the deal is the Obama administration's top foreign policy priority, Tehran has repeatedly threatened to walk away from it, if Washington punishes the regime for any kind of misbehavior.    In so doing, Tehran has deterred meaningful consequences for its actions. This ploy has proven quite successful. It has enabled Iran to set the terms of its relationship with America and to advance its extremist agenda with relative impunity.    Second, as multiple statements from Iran's Supreme Leader, Ayatollah Ali Khamenei, indicate, Tehran fears that the Nuclear Deal is in some way a ruse, aimed at advancing the Western effort to infiltrate its body politic, subvert its radical Islamist ideology, and ultimately overthrow the regime.    To be sure, Tehran's fears of Western infiltration date back to the Islamic Republic's founding in 1979 and are a key part of its conspiratorial world view, regardless of the reality.    But this time, its anxieties have an element of truth. After all, President Obama has repeatedly stated that a Nuclear Deal could help alter the fundamental nature of U.S.-Iranian relations.    For this reason, Iran has increased its aggression, in order to convey a simple message. In the post-Nuclear Deal era, Tehran's hostility towards the West will endure. There will be no rapprochement.    As the regime has repeatedly stated, the deal was purely transactional and had only one purpose: Sanctions relief. Thus, as a practical matter, the deal has not moderated Iran, but, in fact, has exacerbated its dangerous behavior.    What should the United States do? I believe that we need to make a fundamental paradigm shift in our relationship with Iran and adopt a comprehensive strategy, rooted in the premise that our policy on the Nuclear Deal and our policy on Iran's support for terrorism are inextricably linked.    How can the United States achieve this? By reestablishing deterrents and forcing Tehran to reassess the cost-benefit analysis of its behavior; by imposing meaningful new sanctions on Iran's Islamic Revolutionary Guard Corps, which spearheads Iran's regional aggression and domestic repression; by openly siding with our Gulf allies against Iran, in order to reduce its regional presence and influence; by treating Iran as part of the region's problems, especially Syria's Civil War, not as part of the solution.    In short, we need to reverse the current dynamic, so that it is Iran, not the United States, that fears the consequences of deliberate provocations. This process will not be easy, but if the United States continues its current path, I fear that Iranian aggression will likely continue to increase, further endangering our allies, our interests, and our National security.    Thank you, again, for the opportunity to testify today, and I look forward to your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. King. Thank you, Mr. Kahn.    Our next witness is Mr. Ilan Berman. He is vice president of the American Foreign Policy Council in Washington, DC, and is an acknowledged expert on regional security in the Middle East, Central Asia, and the Russian Federation, and has consulted for both the U.S. Central Intelligence Agency and the Department of Defense.    Mr. Berman is a member of the associated faculty at Missouri State University's Department of Defense and Strategic Studies, and serves as a columnist for Forbes.com and The Washington Times, and is the editor of the Journal of International Security Affairs. He has written several books, including the most recent, ``Iran's Strategic Penetration of Latin America,'' published in 2014.    Recognized for 5 minutes. Thank you, Mr. Berman.</t>
+  </si>
+  <si>
+    <t>Berman</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Berman. Thank you.</t>
@@ -593,7 +617,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H67"/>
+  <dimension ref="A1:I67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -601,7 +625,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -623,1589 +647,1858 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
       <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
       <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G20" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
       <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G22" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G23" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
       <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G25" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
       <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>18</v>
+      </c>
+      <c r="G27" t="s">
+        <v>19</v>
+      </c>
       <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G28" t="s">
+        <v>28</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G29" t="s">
+        <v>31</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G30" t="s">
+        <v>24</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>18</v>
+      </c>
+      <c r="G31" t="s">
+        <v>19</v>
+      </c>
       <c r="H31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G32" t="s">
+        <v>28</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G33" t="s">
+        <v>31</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G34" t="s">
+        <v>24</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G35" t="s">
+        <v>13</v>
+      </c>
       <c r="H35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>15</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>18</v>
+      </c>
+      <c r="G36" t="s">
+        <v>19</v>
+      </c>
       <c r="H36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I36" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G37" t="s">
+        <v>13</v>
+      </c>
       <c r="H37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G38" t="s">
+        <v>28</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G39" t="s">
+        <v>13</v>
+      </c>
       <c r="H39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I39" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G40" t="s">
+        <v>28</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G41" t="s">
+        <v>13</v>
+      </c>
       <c r="H41" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I41" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G42" t="s">
+        <v>31</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>11</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G43" t="s">
+        <v>13</v>
+      </c>
       <c r="H43" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I43" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>18</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G44" t="s">
+        <v>31</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G45" t="s">
+        <v>13</v>
+      </c>
       <c r="H45" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I45" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>18</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G46" t="s">
+        <v>24</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G47" t="s">
+        <v>13</v>
+      </c>
       <c r="H47" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I47" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>18</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G48" t="s">
+        <v>28</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>18</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G49" t="s">
+        <v>31</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>18</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G50" t="s">
+        <v>24</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>11</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G51" t="s">
+        <v>13</v>
+      </c>
       <c r="H51" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I51" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>18</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G52" t="s">
+        <v>24</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>11</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G53" t="s">
+        <v>13</v>
+      </c>
       <c r="H53" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I53" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>18</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G54" t="s">
+        <v>31</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>11</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G55" t="s">
+        <v>13</v>
+      </c>
       <c r="H55" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I55" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>18</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G56" t="s">
+        <v>31</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>11</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G57" t="s">
+        <v>13</v>
+      </c>
       <c r="H57" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I57" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>18</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G58" t="s">
+        <v>28</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>11</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G59" t="s">
+        <v>13</v>
+      </c>
       <c r="H59" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I59" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>18</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G60" t="s">
+        <v>24</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>11</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G61" t="s">
+        <v>13</v>
+      </c>
       <c r="H61" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I61" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>18</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G62" t="s">
+        <v>24</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>11</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G63" t="s">
+        <v>13</v>
+      </c>
       <c r="H63" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I63" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>18</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G64" t="s">
+        <v>31</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>11</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G65" t="s">
+        <v>13</v>
+      </c>
       <c r="H65" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I65" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>18</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G66" t="s">
+        <v>28</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>11</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G67" t="s">
+        <v>13</v>
+      </c>
       <c r="H67" t="s">
-        <v>76</v>
+        <v>14</v>
+      </c>
+      <c r="I67" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg21525.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg21525.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="88">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400219</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>King</t>
   </si>
   <si>
@@ -71,6 +77,9 @@
   </si>
   <si>
     <t>400641</t>
+  </si>
+  <si>
+    <t>Ranking Member</t>
   </si>
   <si>
     <t>Higgins</t>
@@ -617,7 +626,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I67"/>
+  <dimension ref="A1:J67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -625,7 +634,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -650,1855 +659,1992 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" t="s">
-        <v>31</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" t="s">
-        <v>24</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" t="s">
-        <v>24</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>27</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G22" t="s">
-        <v>28</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>31</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23" t="s">
-        <v>31</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>34</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>23</v>
-      </c>
-      <c r="G25" t="s">
-        <v>24</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>27</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I26" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G27" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H27" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="J27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>23</v>
-      </c>
-      <c r="G28" t="s">
-        <v>28</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>31</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>23</v>
-      </c>
-      <c r="G29" t="s">
-        <v>31</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>34</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>23</v>
-      </c>
-      <c r="G30" t="s">
-        <v>24</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>27</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G31" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H31" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I31" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="J31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>23</v>
-      </c>
-      <c r="G32" t="s">
-        <v>28</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>31</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>23</v>
-      </c>
-      <c r="G33" t="s">
-        <v>31</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>34</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>23</v>
-      </c>
-      <c r="G34" t="s">
-        <v>24</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>27</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I35" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G36" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H36" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I36" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="J36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I37" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>23</v>
-      </c>
-      <c r="G38" t="s">
-        <v>28</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>31</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H39" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I39" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>23</v>
-      </c>
-      <c r="G40" t="s">
-        <v>28</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>31</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H41" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I41" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J41" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>23</v>
-      </c>
-      <c r="G42" t="s">
-        <v>31</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>34</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H43" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I43" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>23</v>
-      </c>
-      <c r="G44" t="s">
-        <v>31</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>34</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G45" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H45" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I45" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>23</v>
-      </c>
-      <c r="G46" t="s">
-        <v>24</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>27</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H47" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I47" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>23</v>
-      </c>
-      <c r="G48" t="s">
-        <v>28</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>31</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>23</v>
-      </c>
-      <c r="G49" t="s">
-        <v>31</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>34</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>23</v>
-      </c>
-      <c r="G50" t="s">
-        <v>24</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>27</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G51" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H51" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I51" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J51" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>23</v>
-      </c>
-      <c r="G52" t="s">
-        <v>24</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>27</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G53" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H53" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I53" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J53" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>23</v>
-      </c>
-      <c r="G54" t="s">
-        <v>31</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>34</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G55" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H55" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I55" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J55" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>23</v>
-      </c>
-      <c r="G56" t="s">
-        <v>31</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>34</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G57" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H57" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I57" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J57" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>23</v>
-      </c>
-      <c r="G58" t="s">
-        <v>28</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>31</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G59" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H59" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I59" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J59" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>23</v>
-      </c>
-      <c r="G60" t="s">
-        <v>24</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>27</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G61" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H61" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I61" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J61" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>23</v>
-      </c>
-      <c r="G62" t="s">
-        <v>24</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>27</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G63" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H63" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I63" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J63" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>23</v>
-      </c>
-      <c r="G64" t="s">
-        <v>31</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>34</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G65" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H65" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I65" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J65" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>23</v>
-      </c>
-      <c r="G66" t="s">
-        <v>28</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>31</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G67" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H67" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I67" t="s">
-        <v>84</v>
+        <v>16</v>
+      </c>
+      <c r="J67" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
